--- a/BSIS405_SAMPLE_DATA.xlsx
+++ b/BSIS405_SAMPLE_DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satsa\KLD-Grade-Portal-Final-Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mherwen romero\KLD-Grade-Portal-Final-Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5EF8D5-6CF0-4642-91C8-1420EF554512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E171C32-E704-41BA-802C-1D54AD9C2C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC4E698B-0AEC-4AB0-A2D9-3478BC285D52}"/>
   </bookViews>
@@ -360,9 +360,6 @@
     <t>cm45m0yll001ecgorw02lilw8</t>
   </si>
   <si>
-    <t>cm47zjftn0001f9ny9aefqu61</t>
-  </si>
-  <si>
     <t>Lourdes</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>Torzar</t>
+  </si>
+  <si>
+    <t>cm49gx0ec000dxacchfxozjbb</t>
   </si>
 </sst>
 </file>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F6DBFF-DFF5-4072-8C60-D7C80BD15B7B}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,13 +1060,13 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>114</v>
       </c>
       <c r="F2" s="2">
         <v>36819</v>
@@ -1120,7 +1120,7 @@
         <v>110</v>
       </c>
       <c r="W2" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1128,13 +1128,13 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2">
         <v>36662</v>
@@ -1188,7 +1188,7 @@
         <v>110</v>
       </c>
       <c r="W3" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1196,10 +1196,10 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
         <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>136</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="W4" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1264,13 +1264,13 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
         <v>139</v>
       </c>
-      <c r="C5" t="s">
-        <v>140</v>
-      </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5" s="2">
         <v>36405</v>
@@ -1324,7 +1324,7 @@
         <v>110</v>
       </c>
       <c r="W5" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1332,10 +1332,10 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
         <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
       </c>
       <c r="F6" s="2">
         <v>36405</v>
@@ -1389,7 +1389,7 @@
         <v>110</v>
       </c>
       <c r="W6" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1397,13 +1397,13 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="2">
         <v>36405</v>
@@ -1457,7 +1457,7 @@
         <v>110</v>
       </c>
       <c r="W7" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1465,13 +1465,13 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
         <v>145</v>
-      </c>
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
       </c>
       <c r="F8" s="2">
         <v>36405</v>
@@ -1525,7 +1525,7 @@
         <v>110</v>
       </c>
       <c r="W8" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1533,13 +1533,13 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="2">
         <v>36405</v>
@@ -1593,7 +1593,7 @@
         <v>110</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1601,13 +1601,13 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
         <v>148</v>
       </c>
-      <c r="C10" t="s">
-        <v>149</v>
-      </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="2">
         <v>36405</v>
@@ -1661,7 +1661,7 @@
         <v>110</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1669,13 +1669,13 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
         <v>150</v>
       </c>
-      <c r="C11" t="s">
-        <v>151</v>
-      </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="2">
         <v>36405</v>
@@ -1729,7 +1729,7 @@
         <v>110</v>
       </c>
       <c r="W11" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1737,13 +1737,13 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
         <v>152</v>
       </c>
-      <c r="C12" t="s">
-        <v>153</v>
-      </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="2">
         <v>36405</v>
@@ -1797,7 +1797,7 @@
         <v>110</v>
       </c>
       <c r="W12" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1805,13 +1805,13 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="2">
         <v>36405</v>
@@ -1865,7 +1865,7 @@
         <v>110</v>
       </c>
       <c r="W13" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1873,13 +1873,13 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="2">
         <v>36405</v>
@@ -1933,7 +1933,7 @@
         <v>110</v>
       </c>
       <c r="W14" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1941,13 +1941,13 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="2">
         <v>36405</v>
@@ -2001,7 +2001,7 @@
         <v>110</v>
       </c>
       <c r="W15" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -2009,13 +2009,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="2">
         <v>36405</v>
@@ -2069,7 +2069,7 @@
         <v>110</v>
       </c>
       <c r="W16" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2077,13 +2077,13 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
         <v>158</v>
       </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" s="2">
         <v>36405</v>
@@ -2137,7 +2137,7 @@
         <v>110</v>
       </c>
       <c r="W17" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2145,10 +2145,10 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18" s="2">
         <v>36405</v>
@@ -2202,7 +2202,7 @@
         <v>110</v>
       </c>
       <c r="W18" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2210,13 +2210,13 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
         <v>161</v>
       </c>
-      <c r="C19" t="s">
-        <v>162</v>
-      </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="2">
         <v>36405</v>
@@ -2270,7 +2270,7 @@
         <v>110</v>
       </c>
       <c r="W19" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -2278,13 +2278,13 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
         <v>163</v>
       </c>
-      <c r="C20" t="s">
-        <v>164</v>
-      </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="2">
         <v>36405</v>
@@ -2338,7 +2338,7 @@
         <v>110</v>
       </c>
       <c r="W20" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2346,13 +2346,13 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
         <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" t="s">
-        <v>166</v>
       </c>
       <c r="F21" s="2">
         <v>36405</v>
@@ -2406,7 +2406,7 @@
         <v>110</v>
       </c>
       <c r="W21" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2414,13 +2414,13 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="2">
         <v>36405</v>
@@ -2474,7 +2474,7 @@
         <v>110</v>
       </c>
       <c r="W22" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2482,13 +2482,13 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="2">
         <v>36405</v>
@@ -2542,7 +2542,7 @@
         <v>110</v>
       </c>
       <c r="W23" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2550,13 +2550,13 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2">
         <v>36405</v>
@@ -2610,7 +2610,7 @@
         <v>110</v>
       </c>
       <c r="W24" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2618,13 +2618,13 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="2">
         <v>36405</v>
@@ -2678,7 +2678,7 @@
         <v>110</v>
       </c>
       <c r="W25" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -2689,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -2746,7 +2746,7 @@
         <v>110</v>
       </c>
       <c r="W26" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2754,13 +2754,13 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" s="2">
         <v>36405</v>
@@ -2814,7 +2814,7 @@
         <v>110</v>
       </c>
       <c r="W27" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -2822,13 +2822,13 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="2">
         <v>36405</v>
@@ -2882,7 +2882,7 @@
         <v>110</v>
       </c>
       <c r="W28" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -2890,10 +2890,10 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
         <v>179</v>
-      </c>
-      <c r="D29" t="s">
-        <v>180</v>
       </c>
       <c r="F29" s="2">
         <v>36405</v>
@@ -2947,7 +2947,7 @@
         <v>110</v>
       </c>
       <c r="W29" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -2955,13 +2955,13 @@
         <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F30" s="2">
         <v>36405</v>
@@ -3015,7 +3015,7 @@
         <v>110</v>
       </c>
       <c r="W30" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -3023,13 +3023,13 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F31" s="2">
         <v>36405</v>
@@ -3083,7 +3083,7 @@
         <v>110</v>
       </c>
       <c r="W31" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -3151,7 +3151,7 @@
         <v>110</v>
       </c>
       <c r="W32" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -3159,13 +3159,13 @@
         <v>74</v>
       </c>
       <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
         <v>183</v>
-      </c>
-      <c r="C33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" t="s">
-        <v>184</v>
       </c>
       <c r="F33" s="2">
         <v>36405</v>
@@ -3219,7 +3219,7 @@
         <v>110</v>
       </c>
       <c r="W33" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -3227,13 +3227,13 @@
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="2">
         <v>36405</v>
@@ -3287,7 +3287,7 @@
         <v>110</v>
       </c>
       <c r="W34" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -3295,13 +3295,13 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
         <v>186</v>
-      </c>
-      <c r="C35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" t="s">
-        <v>187</v>
       </c>
       <c r="F35" s="2">
         <v>36405</v>
@@ -3355,7 +3355,7 @@
         <v>110</v>
       </c>
       <c r="W35" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/BSIS405_SAMPLE_DATA.xlsx
+++ b/BSIS405_SAMPLE_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mherwen romero\KLD-Grade-Portal-Final-Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E171C32-E704-41BA-802C-1D54AD9C2C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB4B3B9-728B-4BCE-B5BF-C20B8D68DB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC4E698B-0AEC-4AB0-A2D9-3478BC285D52}"/>
   </bookViews>
@@ -354,12 +354,6 @@
     <t>mkmtorzar@kld.edu.ph</t>
   </si>
   <si>
-    <t>cm45mxhbg001vcgorcpcjg2sk</t>
-  </si>
-  <si>
-    <t>cm45m0yll001ecgorw02lilw8</t>
-  </si>
-  <si>
     <t>Lourdes</t>
   </si>
   <si>
@@ -589,6 +583,12 @@
   </si>
   <si>
     <t>cm49gx0ec000dxacchfxozjbb</t>
+  </si>
+  <si>
+    <t>cm49gpnut000epxfxphkazzre</t>
+  </si>
+  <si>
+    <t>cm49goda00006pxfxjzdngots</t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,13 +1060,13 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
       </c>
       <c r="F2" s="2">
         <v>36819</v>
@@ -1114,13 +1114,13 @@
         <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V2" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1128,13 +1128,13 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2">
         <v>36662</v>
@@ -1182,13 +1182,13 @@
         <v>39</v>
       </c>
       <c r="U3" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V3" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1196,10 +1196,10 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1250,13 +1250,13 @@
         <v>39</v>
       </c>
       <c r="U4" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V4" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1264,13 +1264,13 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2">
         <v>36405</v>
@@ -1318,13 +1318,13 @@
         <v>39</v>
       </c>
       <c r="U5" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V5" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1332,10 +1332,10 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" s="2">
         <v>36405</v>
@@ -1383,13 +1383,13 @@
         <v>39</v>
       </c>
       <c r="U6" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V6" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1397,13 +1397,13 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F7" s="2">
         <v>36405</v>
@@ -1451,13 +1451,13 @@
         <v>39</v>
       </c>
       <c r="U7" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V7" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1465,13 +1465,13 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="2">
         <v>36405</v>
@@ -1519,13 +1519,13 @@
         <v>39</v>
       </c>
       <c r="U8" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V8" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1533,13 +1533,13 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="2">
         <v>36405</v>
@@ -1587,13 +1587,13 @@
         <v>39</v>
       </c>
       <c r="U9" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V9" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1601,13 +1601,13 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F10" s="2">
         <v>36405</v>
@@ -1655,13 +1655,13 @@
         <v>39</v>
       </c>
       <c r="U10" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V10" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1669,13 +1669,13 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" s="2">
         <v>36405</v>
@@ -1723,13 +1723,13 @@
         <v>39</v>
       </c>
       <c r="U11" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V11" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1737,13 +1737,13 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="2">
         <v>36405</v>
@@ -1791,13 +1791,13 @@
         <v>39</v>
       </c>
       <c r="U12" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V12" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1805,13 +1805,13 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F13" s="2">
         <v>36405</v>
@@ -1859,13 +1859,13 @@
         <v>39</v>
       </c>
       <c r="U13" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V13" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1873,13 +1873,13 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F14" s="2">
         <v>36405</v>
@@ -1927,13 +1927,13 @@
         <v>39</v>
       </c>
       <c r="U14" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V14" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1941,13 +1941,13 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F15" s="2">
         <v>36405</v>
@@ -1995,13 +1995,13 @@
         <v>39</v>
       </c>
       <c r="U15" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V15" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -2009,13 +2009,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F16" s="2">
         <v>36405</v>
@@ -2063,13 +2063,13 @@
         <v>39</v>
       </c>
       <c r="U16" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V16" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2077,13 +2077,13 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F17" s="2">
         <v>36405</v>
@@ -2131,13 +2131,13 @@
         <v>39</v>
       </c>
       <c r="U17" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V17" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2145,10 +2145,10 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2">
         <v>36405</v>
@@ -2196,13 +2196,13 @@
         <v>39</v>
       </c>
       <c r="U18" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V18" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2210,13 +2210,13 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" s="2">
         <v>36405</v>
@@ -2264,13 +2264,13 @@
         <v>39</v>
       </c>
       <c r="U19" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V19" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -2278,13 +2278,13 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" s="2">
         <v>36405</v>
@@ -2332,13 +2332,13 @@
         <v>39</v>
       </c>
       <c r="U20" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V20" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2346,13 +2346,13 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F21" s="2">
         <v>36405</v>
@@ -2400,13 +2400,13 @@
         <v>39</v>
       </c>
       <c r="U21" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V21" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2414,13 +2414,13 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F22" s="2">
         <v>36405</v>
@@ -2468,13 +2468,13 @@
         <v>39</v>
       </c>
       <c r="U22" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V22" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2482,13 +2482,13 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F23" s="2">
         <v>36405</v>
@@ -2536,13 +2536,13 @@
         <v>39</v>
       </c>
       <c r="U23" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V23" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2550,13 +2550,13 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2">
         <v>36405</v>
@@ -2604,13 +2604,13 @@
         <v>39</v>
       </c>
       <c r="U24" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V24" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2618,13 +2618,13 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F25" s="2">
         <v>36405</v>
@@ -2672,13 +2672,13 @@
         <v>39</v>
       </c>
       <c r="U25" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V25" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -2689,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -2740,13 +2740,13 @@
         <v>39</v>
       </c>
       <c r="U26" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V26" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2754,13 +2754,13 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F27" s="2">
         <v>36405</v>
@@ -2808,13 +2808,13 @@
         <v>39</v>
       </c>
       <c r="U27" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V27" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -2822,13 +2822,13 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F28" s="2">
         <v>36405</v>
@@ -2876,13 +2876,13 @@
         <v>39</v>
       </c>
       <c r="U28" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V28" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -2890,10 +2890,10 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F29" s="2">
         <v>36405</v>
@@ -2941,13 +2941,13 @@
         <v>39</v>
       </c>
       <c r="U29" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V29" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -2955,13 +2955,13 @@
         <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F30" s="2">
         <v>36405</v>
@@ -3009,13 +3009,13 @@
         <v>39</v>
       </c>
       <c r="U30" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V30" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -3023,13 +3023,13 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F31" s="2">
         <v>36405</v>
@@ -3077,13 +3077,13 @@
         <v>39</v>
       </c>
       <c r="U31" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V31" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -3145,13 +3145,13 @@
         <v>39</v>
       </c>
       <c r="U32" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V32" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -3159,13 +3159,13 @@
         <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F33" s="2">
         <v>36405</v>
@@ -3213,13 +3213,13 @@
         <v>39</v>
       </c>
       <c r="U33" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V33" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -3227,13 +3227,13 @@
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F34" s="2">
         <v>36405</v>
@@ -3281,13 +3281,13 @@
         <v>39</v>
       </c>
       <c r="U34" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V34" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -3295,13 +3295,13 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F35" s="2">
         <v>36405</v>
@@ -3349,13 +3349,13 @@
         <v>39</v>
       </c>
       <c r="U35" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="V35" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="W35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
